--- a/biology/Biochimie/Globule_fondu/Globule_fondu.xlsx
+++ b/biology/Biochimie/Globule_fondu/Globule_fondu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un globule fondu est un état stable de protéine partiellement repliée que l'on trouve dans des conditions douces de dénaturation comme un pH faible (généralement égal à 2), modérément dénaturant ou à haute température. Les globules fondus sont effondrés sur eux-mêmes et possèdent généralement une structure secondaire semblable à celle de l'état natif mais une structure tertiaire dynamique comme le montre la spectroscopie par dichroïsme circulaire respectivement lointaine ou proche. Ces caractéristiques sont similaires à celles observées pour les états intermédiaires transitoires observées durant le repliement de certaines protéines, et tout spécialement les protéines globulaires subissant un effondrement hydrophobe, et par conséquent, le terme de « globule fondu » est aussi utilisé pour référer à certains intermédiaires du repliement des protéines correspondant à la région proche du chemin de repliement plus haute en énergie que l'état natif mais plus basse en énergie que l'état dénaturé. Les ensembles globules fondus parcourus durant le processus de repliement-dépliement de la protéine sont considérés comme étant grossièrement similaires.
 La structure d'un globule fondu (MG) est considérée comme ne possédant pas les chaînes latérales d'acides aminés caractérisant l'état natif (N) d'une protéine. La transition d'un état dénaturé (U) à un globule fondu peut être un processus en deux étapes :
